--- a/data/inventory/lci-euro1.xlsx
+++ b/data/inventory/lci-euro1.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea\OneDrive - NTNU\Attachments\PSI\jupyter\Adapt LCI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nistad_a\Desktop\scrappage-bev\data\inventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="78" documentId="8_{D7434702-36F8-49FC-BA66-5E3F24186E30}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{B70F1612-D686-4557-90F2-9680940F2F6F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5B3350A4-B8AC-4727-B34A-8AF26C20A2BB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="euro 1" sheetId="1" r:id="rId1"/>
@@ -258,8 +257,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -347,7 +346,7 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -658,20 +657,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC4BACBA-CCBF-44EB-AE77-BA97BEC2B613}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K810"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A444" workbookViewId="0">
-      <selection activeCell="A474" sqref="A474"/>
+    <sheetView tabSelected="1" topLeftCell="A413" workbookViewId="0">
+      <selection activeCell="B456" sqref="B456"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="78.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>73</v>
       </c>
@@ -679,7 +678,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -687,7 +686,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.75">
       <c r="A4" s="1" t="s">
         <v>54</v>
       </c>
@@ -695,7 +694,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>53</v>
       </c>
@@ -703,7 +702,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -711,7 +710,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -719,7 +718,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -728,12 +727,12 @@
       </c>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15.75">
       <c r="A9" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -756,7 +755,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -774,7 +773,7 @@
       </c>
       <c r="K11" s="7"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -792,12 +791,12 @@
       </c>
       <c r="K12" s="7"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>41</v>
       </c>
       <c r="B13">
-        <v>0.22743879699707001</v>
+        <v>0.22263005065918001</v>
       </c>
       <c r="D13" t="s">
         <v>2</v>
@@ -810,7 +809,7 @@
       </c>
       <c r="K13" s="7"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -828,7 +827,7 @@
       </c>
       <c r="K14" s="7"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -846,7 +845,7 @@
       </c>
       <c r="K15" s="7"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -864,7 +863,7 @@
       </c>
       <c r="K16" s="7"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -882,12 +881,12 @@
       </c>
       <c r="K17" s="7"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>36</v>
       </c>
       <c r="B18">
-        <v>7.2245967388153104E-4</v>
+        <v>6.8560767173767099E-4</v>
       </c>
       <c r="D18" t="s">
         <v>2</v>
@@ -900,12 +899,12 @@
       </c>
       <c r="K18" s="7"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>35</v>
       </c>
       <c r="B19">
-        <v>1.2257129698991801E-4</v>
+        <v>1.14824436604977E-4</v>
       </c>
       <c r="D19" t="s">
         <v>2</v>
@@ -918,12 +917,12 @@
       </c>
       <c r="K19" s="7"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>34</v>
       </c>
       <c r="B20">
-        <v>1.1446917196735701E-6</v>
+        <v>1.1204894399270399E-6</v>
       </c>
       <c r="D20" t="s">
         <v>2</v>
@@ -936,7 +935,7 @@
       </c>
       <c r="K20" s="7"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -956,7 +955,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -976,7 +975,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -996,12 +995,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
         <v>62</v>
       </c>
       <c r="B24">
-        <v>7.1543228149414106E-2</v>
+        <v>7.0030593872070293E-2</v>
       </c>
       <c r="C24" t="s">
         <v>16</v>
@@ -1016,7 +1015,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1036,7 +1035,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1056,7 +1055,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -1076,7 +1075,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -1096,7 +1095,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -1116,7 +1115,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -1136,7 +1135,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -1156,7 +1155,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -1176,7 +1175,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1196,7 +1195,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -1216,7 +1215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15.75">
       <c r="A36" s="1" t="s">
         <v>54</v>
       </c>
@@ -1224,7 +1223,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>53</v>
       </c>
@@ -1232,7 +1231,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -1240,7 +1239,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -1248,7 +1247,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -1256,12 +1255,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="15.75">
       <c r="A41" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -1284,7 +1283,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -1301,7 +1300,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -1318,12 +1317,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>41</v>
       </c>
       <c r="B45">
-        <v>9.5391090393066411E-2</v>
+        <v>9.2023246765136707E-2</v>
       </c>
       <c r="D45" t="s">
         <v>2</v>
@@ -1335,7 +1334,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
         <v>40</v>
       </c>
@@ -1352,7 +1351,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
         <v>39</v>
       </c>
@@ -1369,7 +1368,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
         <v>38</v>
       </c>
@@ -1386,7 +1385,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
         <v>37</v>
       </c>
@@ -1403,12 +1402,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
         <v>36</v>
       </c>
       <c r="B50">
-        <v>7.2245967388153104E-4</v>
+        <v>6.8560767173767099E-4</v>
       </c>
       <c r="D50" t="s">
         <v>2</v>
@@ -1420,12 +1419,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
         <v>35</v>
       </c>
       <c r="B51">
-        <v>1.2257129698991801E-4</v>
+        <v>1.14824436604977E-4</v>
       </c>
       <c r="D51" t="s">
         <v>2</v>
@@ -1437,12 +1436,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>34</v>
       </c>
       <c r="B52">
-        <v>4.8010010505095107E-7</v>
+        <v>4.6314985956996702E-7</v>
       </c>
       <c r="D52" t="s">
         <v>2</v>
@@ -1454,7 +1453,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
         <v>31</v>
       </c>
@@ -1474,7 +1473,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
         <v>30</v>
       </c>
@@ -1494,7 +1493,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
         <v>28</v>
       </c>
@@ -1514,12 +1513,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
         <v>62</v>
       </c>
       <c r="B56">
-        <v>3.0006256103515601E-2</v>
+        <v>2.8946866989135699E-2</v>
       </c>
       <c r="C56" t="s">
         <v>16</v>
@@ -1534,7 +1533,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>26</v>
       </c>
@@ -1554,7 +1553,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="A58" t="s">
         <v>24</v>
       </c>
@@ -1574,7 +1573,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59" t="s">
         <v>24</v>
       </c>
@@ -1594,7 +1593,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
         <v>22</v>
       </c>
@@ -1614,7 +1613,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
         <v>20</v>
       </c>
@@ -1634,7 +1633,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
         <v>14</v>
       </c>
@@ -1654,7 +1653,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
         <v>11</v>
       </c>
@@ -1674,7 +1673,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
         <v>9</v>
       </c>
@@ -1694,7 +1693,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -1714,7 +1713,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="A66" t="s">
         <v>4</v>
       </c>
@@ -1734,7 +1733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="15.75">
       <c r="A68" s="1" t="s">
         <v>54</v>
       </c>
@@ -1742,7 +1741,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="A69" t="s">
         <v>53</v>
       </c>
@@ -1750,7 +1749,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7">
       <c r="A70" t="s">
         <v>47</v>
       </c>
@@ -1758,7 +1757,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7">
       <c r="A71" t="s">
         <v>44</v>
       </c>
@@ -1766,7 +1765,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="A72" t="s">
         <v>19</v>
       </c>
@@ -1774,12 +1773,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="15.75">
       <c r="A73" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7">
       <c r="A74" t="s">
         <v>49</v>
       </c>
@@ -1802,7 +1801,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7">
       <c r="A75" t="s">
         <v>43</v>
       </c>
@@ -1819,7 +1818,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7">
       <c r="A76" t="s">
         <v>42</v>
       </c>
@@ -1836,12 +1835,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7">
       <c r="A77" t="s">
         <v>41</v>
       </c>
       <c r="B77">
-        <v>0.16587124633789099</v>
+        <v>0.16022297668457</v>
       </c>
       <c r="D77" t="s">
         <v>2</v>
@@ -1853,7 +1852,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7">
       <c r="A78" t="s">
         <v>40</v>
       </c>
@@ -1870,7 +1869,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7">
       <c r="A79" t="s">
         <v>39</v>
       </c>
@@ -1887,7 +1886,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7">
       <c r="A80" t="s">
         <v>38</v>
       </c>
@@ -1904,7 +1903,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7">
       <c r="A81" t="s">
         <v>37</v>
       </c>
@@ -1921,12 +1920,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7">
       <c r="A82" t="s">
         <v>36</v>
       </c>
       <c r="B82">
-        <v>7.2245967388153104E-4</v>
+        <v>6.8560767173767099E-4</v>
       </c>
       <c r="D82" t="s">
         <v>2</v>
@@ -1938,12 +1937,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7">
       <c r="A83" t="s">
         <v>35</v>
       </c>
       <c r="B83">
-        <v>1.2257129698991801E-4</v>
+        <v>1.14824436604977E-4</v>
       </c>
       <c r="D83" t="s">
         <v>2</v>
@@ -1955,12 +1954,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7">
       <c r="A84" t="s">
         <v>34</v>
       </c>
       <c r="B84">
-        <v>8.3482434274628805E-7</v>
+        <v>8.0639676889404703E-7</v>
       </c>
       <c r="D84" t="s">
         <v>2</v>
@@ -1972,7 +1971,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7">
       <c r="A85" t="s">
         <v>31</v>
       </c>
@@ -1992,7 +1991,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7">
       <c r="A86" t="s">
         <v>30</v>
       </c>
@@ -2012,7 +2011,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7">
       <c r="A87" t="s">
         <v>28</v>
       </c>
@@ -2032,12 +2031,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7">
       <c r="A88" t="s">
         <v>62</v>
       </c>
       <c r="B88">
-        <v>5.2176521301269513E-2</v>
+        <v>5.0399799346923797E-2</v>
       </c>
       <c r="C88" t="s">
         <v>16</v>
@@ -2052,7 +2051,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7">
       <c r="A89" t="s">
         <v>26</v>
       </c>
@@ -2072,7 +2071,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7">
       <c r="A90" t="s">
         <v>24</v>
       </c>
@@ -2092,7 +2091,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7">
       <c r="A91" t="s">
         <v>24</v>
       </c>
@@ -2112,7 +2111,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7">
       <c r="A92" t="s">
         <v>22</v>
       </c>
@@ -2132,7 +2131,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7">
       <c r="A93" t="s">
         <v>20</v>
       </c>
@@ -2152,7 +2151,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7">
       <c r="A94" t="s">
         <v>14</v>
       </c>
@@ -2172,7 +2171,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7">
       <c r="A95" t="s">
         <v>11</v>
       </c>
@@ -2192,7 +2191,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7">
       <c r="A96" t="s">
         <v>9</v>
       </c>
@@ -2212,7 +2211,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7">
       <c r="A97" t="s">
         <v>7</v>
       </c>
@@ -2232,7 +2231,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7">
       <c r="A98" t="s">
         <v>4</v>
       </c>
@@ -2252,7 +2251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" ht="15.75">
       <c r="A100" s="1" t="s">
         <v>54</v>
       </c>
@@ -2260,7 +2259,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7">
       <c r="A101" t="s">
         <v>53</v>
       </c>
@@ -2268,7 +2267,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7">
       <c r="A102" t="s">
         <v>47</v>
       </c>
@@ -2276,7 +2275,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7">
       <c r="A103" t="s">
         <v>44</v>
       </c>
@@ -2284,7 +2283,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7">
       <c r="A104" t="s">
         <v>19</v>
       </c>
@@ -2292,12 +2291,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" ht="15.75">
       <c r="A105" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7">
       <c r="A106" t="s">
         <v>49</v>
       </c>
@@ -2320,7 +2319,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7">
       <c r="A107" t="s">
         <v>43</v>
       </c>
@@ -2337,7 +2336,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7">
       <c r="A108" t="s">
         <v>42</v>
       </c>
@@ -2354,12 +2353,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7">
       <c r="A109" t="s">
         <v>41</v>
       </c>
       <c r="B109">
-        <v>9.5391090393066411E-2</v>
+        <v>9.2023246765136707E-2</v>
       </c>
       <c r="D109" t="s">
         <v>2</v>
@@ -2371,7 +2370,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7">
       <c r="A110" t="s">
         <v>40</v>
       </c>
@@ -2388,7 +2387,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7">
       <c r="A111" t="s">
         <v>39</v>
       </c>
@@ -2405,7 +2404,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7">
       <c r="A112" t="s">
         <v>38</v>
       </c>
@@ -2422,7 +2421,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7">
       <c r="A113" t="s">
         <v>37</v>
       </c>
@@ -2439,12 +2438,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7">
       <c r="A114" t="s">
         <v>36</v>
       </c>
       <c r="B114">
-        <v>7.2245967388153104E-4</v>
+        <v>6.8560767173767099E-4</v>
       </c>
       <c r="D114" t="s">
         <v>2</v>
@@ -2456,12 +2455,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7">
       <c r="A115" t="s">
         <v>35</v>
       </c>
       <c r="B115">
-        <v>1.2257129698991801E-4</v>
+        <v>1.14824436604977E-4</v>
       </c>
       <c r="D115" t="s">
         <v>2</v>
@@ -2473,12 +2472,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7">
       <c r="A116" t="s">
         <v>34</v>
       </c>
       <c r="B116">
-        <v>4.8010010505095107E-7</v>
+        <v>4.6314985956996702E-7</v>
       </c>
       <c r="D116" t="s">
         <v>2</v>
@@ -2490,7 +2489,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7">
       <c r="A117" t="s">
         <v>31</v>
       </c>
@@ -2510,7 +2509,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7">
       <c r="A118" t="s">
         <v>30</v>
       </c>
@@ -2530,7 +2529,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7">
       <c r="A119" t="s">
         <v>28</v>
       </c>
@@ -2550,12 +2549,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7">
       <c r="A120" t="s">
         <v>62</v>
       </c>
       <c r="B120">
-        <v>3.0006256103515601E-2</v>
+        <v>2.8946866989135699E-2</v>
       </c>
       <c r="C120" t="s">
         <v>16</v>
@@ -2570,7 +2569,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7">
       <c r="A121" t="s">
         <v>26</v>
       </c>
@@ -2590,7 +2589,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7">
       <c r="A122" t="s">
         <v>24</v>
       </c>
@@ -2610,7 +2609,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7">
       <c r="A123" t="s">
         <v>24</v>
       </c>
@@ -2630,7 +2629,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7">
       <c r="A124" t="s">
         <v>22</v>
       </c>
@@ -2650,7 +2649,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7">
       <c r="A125" t="s">
         <v>20</v>
       </c>
@@ -2670,7 +2669,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7">
       <c r="A126" t="s">
         <v>14</v>
       </c>
@@ -2690,7 +2689,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7">
       <c r="A127" t="s">
         <v>11</v>
       </c>
@@ -2710,7 +2709,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7">
       <c r="A128" t="s">
         <v>9</v>
       </c>
@@ -2730,7 +2729,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7">
       <c r="A129" t="s">
         <v>7</v>
       </c>
@@ -2750,7 +2749,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7">
       <c r="A130" t="s">
         <v>4</v>
       </c>
@@ -2770,7 +2769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" ht="15.75">
       <c r="A132" s="1" t="s">
         <v>54</v>
       </c>
@@ -2778,7 +2777,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7">
       <c r="A133" t="s">
         <v>53</v>
       </c>
@@ -2786,7 +2785,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7">
       <c r="A134" t="s">
         <v>47</v>
       </c>
@@ -2794,7 +2793,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7">
       <c r="A135" t="s">
         <v>44</v>
       </c>
@@ -2802,7 +2801,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7">
       <c r="A136" t="s">
         <v>19</v>
       </c>
@@ -2810,12 +2809,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" ht="15.75">
       <c r="A137" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7">
       <c r="A138" t="s">
         <v>49</v>
       </c>
@@ -2838,7 +2837,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7">
       <c r="A139" t="s">
         <v>43</v>
       </c>
@@ -2855,7 +2854,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7">
       <c r="A140" t="s">
         <v>42</v>
       </c>
@@ -2872,12 +2871,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7">
       <c r="A141" t="s">
         <v>41</v>
       </c>
       <c r="B141">
-        <v>0.22743879699707001</v>
+        <v>0.22263005065918001</v>
       </c>
       <c r="D141" t="s">
         <v>2</v>
@@ -2889,7 +2888,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7">
       <c r="A142" t="s">
         <v>40</v>
       </c>
@@ -2906,7 +2905,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7">
       <c r="A143" t="s">
         <v>39</v>
       </c>
@@ -2923,7 +2922,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7">
       <c r="A144" t="s">
         <v>38</v>
       </c>
@@ -2940,7 +2939,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7">
       <c r="A145" t="s">
         <v>37</v>
       </c>
@@ -2957,12 +2956,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7">
       <c r="A146" t="s">
         <v>36</v>
       </c>
       <c r="B146">
-        <v>7.2245967388153104E-4</v>
+        <v>6.8560767173767099E-4</v>
       </c>
       <c r="D146" t="s">
         <v>2</v>
@@ -2974,12 +2973,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7">
       <c r="A147" t="s">
         <v>35</v>
       </c>
       <c r="B147">
-        <v>1.2257129698991801E-4</v>
+        <v>1.14824436604977E-4</v>
       </c>
       <c r="D147" t="s">
         <v>2</v>
@@ -2991,12 +2990,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7">
       <c r="A148" t="s">
         <v>34</v>
       </c>
       <c r="B148">
-        <v>1.1446917196735701E-6</v>
+        <v>1.1204894399270399E-6</v>
       </c>
       <c r="D148" t="s">
         <v>2</v>
@@ -3008,7 +3007,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7">
       <c r="A149" t="s">
         <v>31</v>
       </c>
@@ -3028,7 +3027,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7">
       <c r="A150" t="s">
         <v>30</v>
       </c>
@@ -3048,7 +3047,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7">
       <c r="A151" t="s">
         <v>28</v>
       </c>
@@ -3068,12 +3067,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7">
       <c r="A152" t="s">
         <v>62</v>
       </c>
       <c r="B152">
-        <v>7.1543228149414106E-2</v>
+        <v>7.0030593872070293E-2</v>
       </c>
       <c r="C152" t="s">
         <v>16</v>
@@ -3088,7 +3087,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7">
       <c r="A153" t="s">
         <v>26</v>
       </c>
@@ -3108,7 +3107,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7">
       <c r="A154" t="s">
         <v>24</v>
       </c>
@@ -3128,7 +3127,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7">
       <c r="A155" t="s">
         <v>24</v>
       </c>
@@ -3148,7 +3147,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7">
       <c r="A156" t="s">
         <v>22</v>
       </c>
@@ -3168,7 +3167,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7">
       <c r="A157" t="s">
         <v>20</v>
       </c>
@@ -3188,7 +3187,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7">
       <c r="A158" t="s">
         <v>14</v>
       </c>
@@ -3208,7 +3207,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7">
       <c r="A159" t="s">
         <v>11</v>
       </c>
@@ -3228,7 +3227,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7">
       <c r="A160" t="s">
         <v>9</v>
       </c>
@@ -3248,7 +3247,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7">
       <c r="A161" t="s">
         <v>7</v>
       </c>
@@ -3268,7 +3267,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7">
       <c r="A162" t="s">
         <v>4</v>
       </c>
@@ -3288,7 +3287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" ht="15.75">
       <c r="A164" s="1" t="s">
         <v>54</v>
       </c>
@@ -3296,7 +3295,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7">
       <c r="A165" t="s">
         <v>53</v>
       </c>
@@ -3304,7 +3303,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7">
       <c r="A166" t="s">
         <v>47</v>
       </c>
@@ -3312,7 +3311,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7">
       <c r="A167" t="s">
         <v>44</v>
       </c>
@@ -3320,7 +3319,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7">
       <c r="A168" t="s">
         <v>19</v>
       </c>
@@ -3328,12 +3327,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" ht="15.75">
       <c r="A169" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7">
       <c r="A170" t="s">
         <v>49</v>
       </c>
@@ -3356,7 +3355,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7">
       <c r="A171" t="s">
         <v>43</v>
       </c>
@@ -3373,7 +3372,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7">
       <c r="A172" t="s">
         <v>42</v>
       </c>
@@ -3390,12 +3389,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7">
       <c r="A173" t="s">
         <v>41</v>
       </c>
       <c r="B173">
-        <v>9.5391090393066411E-2</v>
+        <v>9.2023246765136707E-2</v>
       </c>
       <c r="D173" t="s">
         <v>2</v>
@@ -3407,7 +3406,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7">
       <c r="A174" t="s">
         <v>40</v>
       </c>
@@ -3424,7 +3423,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7">
       <c r="A175" t="s">
         <v>39</v>
       </c>
@@ -3441,7 +3440,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7">
       <c r="A176" t="s">
         <v>38</v>
       </c>
@@ -3458,7 +3457,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7">
       <c r="A177" t="s">
         <v>37</v>
       </c>
@@ -3475,12 +3474,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7">
       <c r="A178" t="s">
         <v>36</v>
       </c>
       <c r="B178">
-        <v>7.2245967388153104E-4</v>
+        <v>6.8560767173767099E-4</v>
       </c>
       <c r="D178" t="s">
         <v>2</v>
@@ -3492,12 +3491,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7">
       <c r="A179" t="s">
         <v>35</v>
       </c>
       <c r="B179">
-        <v>1.2257129698991801E-4</v>
+        <v>1.14824436604977E-4</v>
       </c>
       <c r="D179" t="s">
         <v>2</v>
@@ -3509,12 +3508,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7">
       <c r="A180" t="s">
         <v>34</v>
       </c>
       <c r="B180">
-        <v>4.8010010505095107E-7</v>
+        <v>4.6314985956996702E-7</v>
       </c>
       <c r="D180" t="s">
         <v>2</v>
@@ -3526,7 +3525,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7">
       <c r="A181" t="s">
         <v>31</v>
       </c>
@@ -3546,7 +3545,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7">
       <c r="A182" t="s">
         <v>30</v>
       </c>
@@ -3566,7 +3565,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7">
       <c r="A183" t="s">
         <v>28</v>
       </c>
@@ -3586,12 +3585,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7">
       <c r="A184" t="s">
         <v>62</v>
       </c>
       <c r="B184">
-        <v>3.0006256103515601E-2</v>
+        <v>2.8946866989135699E-2</v>
       </c>
       <c r="C184" t="s">
         <v>16</v>
@@ -3606,7 +3605,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7">
       <c r="A185" t="s">
         <v>26</v>
       </c>
@@ -3626,7 +3625,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7">
       <c r="A186" t="s">
         <v>24</v>
       </c>
@@ -3646,7 +3645,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7">
       <c r="A187" t="s">
         <v>24</v>
       </c>
@@ -3666,7 +3665,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7">
       <c r="A188" t="s">
         <v>22</v>
       </c>
@@ -3686,7 +3685,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7">
       <c r="A189" t="s">
         <v>20</v>
       </c>
@@ -3706,7 +3705,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7">
       <c r="A190" t="s">
         <v>14</v>
       </c>
@@ -3726,7 +3725,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7">
       <c r="A191" t="s">
         <v>11</v>
       </c>
@@ -3746,7 +3745,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7">
       <c r="A192" t="s">
         <v>9</v>
       </c>
@@ -3766,7 +3765,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7">
       <c r="A193" t="s">
         <v>7</v>
       </c>
@@ -3786,7 +3785,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7">
       <c r="A194" t="s">
         <v>4</v>
       </c>
@@ -3806,7 +3805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" ht="15.75">
       <c r="A196" s="1" t="s">
         <v>54</v>
       </c>
@@ -3814,7 +3813,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7">
       <c r="A197" t="s">
         <v>53</v>
       </c>
@@ -3822,7 +3821,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7">
       <c r="A198" t="s">
         <v>47</v>
       </c>
@@ -3830,7 +3829,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7">
       <c r="A199" t="s">
         <v>44</v>
       </c>
@@ -3838,7 +3837,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7">
       <c r="A200" t="s">
         <v>19</v>
       </c>
@@ -3846,12 +3845,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" ht="15.75">
       <c r="A201" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7">
       <c r="A202" t="s">
         <v>49</v>
       </c>
@@ -3874,7 +3873,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7">
       <c r="A203" t="s">
         <v>43</v>
       </c>
@@ -3891,7 +3890,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7">
       <c r="A204" t="s">
         <v>42</v>
       </c>
@@ -3908,12 +3907,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7">
       <c r="A205" t="s">
         <v>41</v>
       </c>
       <c r="B205">
-        <v>0.16587124633789099</v>
+        <v>0.16022297668457</v>
       </c>
       <c r="D205" t="s">
         <v>2</v>
@@ -3925,7 +3924,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7">
       <c r="A206" t="s">
         <v>40</v>
       </c>
@@ -3942,7 +3941,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7">
       <c r="A207" t="s">
         <v>39</v>
       </c>
@@ -3959,7 +3958,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7">
       <c r="A208" t="s">
         <v>38</v>
       </c>
@@ -3976,7 +3975,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7">
       <c r="A209" t="s">
         <v>37</v>
       </c>
@@ -3993,12 +3992,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7">
       <c r="A210" t="s">
         <v>36</v>
       </c>
       <c r="B210">
-        <v>7.2245967388153104E-4</v>
+        <v>6.8560767173767099E-4</v>
       </c>
       <c r="D210" t="s">
         <v>2</v>
@@ -4010,12 +4009,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7">
       <c r="A211" t="s">
         <v>35</v>
       </c>
       <c r="B211">
-        <v>1.2257129698991801E-4</v>
+        <v>1.14824436604977E-4</v>
       </c>
       <c r="D211" t="s">
         <v>2</v>
@@ -4027,12 +4026,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7">
       <c r="A212" t="s">
         <v>34</v>
       </c>
       <c r="B212">
-        <v>8.3482434274628805E-7</v>
+        <v>8.0639676889404703E-7</v>
       </c>
       <c r="D212" t="s">
         <v>2</v>
@@ -4044,7 +4043,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7">
       <c r="A213" t="s">
         <v>31</v>
       </c>
@@ -4064,7 +4063,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7">
       <c r="A214" t="s">
         <v>30</v>
       </c>
@@ -4084,7 +4083,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7">
       <c r="A215" t="s">
         <v>28</v>
       </c>
@@ -4104,12 +4103,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7">
       <c r="A216" t="s">
         <v>62</v>
       </c>
       <c r="B216">
-        <v>5.2176521301269513E-2</v>
+        <v>5.0399799346923797E-2</v>
       </c>
       <c r="C216" t="s">
         <v>16</v>
@@ -4124,7 +4123,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7">
       <c r="A217" t="s">
         <v>26</v>
       </c>
@@ -4144,7 +4143,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7">
       <c r="A218" t="s">
         <v>24</v>
       </c>
@@ -4164,7 +4163,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7">
       <c r="A219" t="s">
         <v>24</v>
       </c>
@@ -4184,7 +4183,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7">
       <c r="A220" t="s">
         <v>22</v>
       </c>
@@ -4204,7 +4203,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7">
       <c r="A221" t="s">
         <v>20</v>
       </c>
@@ -4224,7 +4223,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7">
       <c r="A222" t="s">
         <v>14</v>
       </c>
@@ -4244,7 +4243,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7">
       <c r="A223" t="s">
         <v>11</v>
       </c>
@@ -4264,7 +4263,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7">
       <c r="A224" t="s">
         <v>9</v>
       </c>
@@ -4284,7 +4283,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7">
       <c r="A225" t="s">
         <v>7</v>
       </c>
@@ -4304,7 +4303,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7">
       <c r="A226" t="s">
         <v>4</v>
       </c>
@@ -4324,7 +4323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" ht="15.75">
       <c r="A228" s="1" t="s">
         <v>54</v>
       </c>
@@ -4332,7 +4331,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7">
       <c r="A229" t="s">
         <v>53</v>
       </c>
@@ -4340,7 +4339,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7">
       <c r="A230" t="s">
         <v>47</v>
       </c>
@@ -4348,7 +4347,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7">
       <c r="A231" t="s">
         <v>44</v>
       </c>
@@ -4356,7 +4355,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7">
       <c r="A232" t="s">
         <v>19</v>
       </c>
@@ -4364,12 +4363,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="233" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" ht="15.75">
       <c r="A233" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7">
       <c r="A234" t="s">
         <v>49</v>
       </c>
@@ -4392,12 +4391,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7">
       <c r="A235" t="s">
         <v>43</v>
       </c>
       <c r="B235">
-        <v>9.8979294300079304E-5</v>
+        <v>1.0012288391590101E-4</v>
       </c>
       <c r="D235" t="s">
         <v>2</v>
@@ -4409,12 +4408,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7">
       <c r="A236" t="s">
         <v>42</v>
       </c>
       <c r="B236">
-        <v>1.40282604843378E-5</v>
+        <v>2.1415797993540802E-5</v>
       </c>
       <c r="D236" t="s">
         <v>2</v>
@@ -4426,12 +4425,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7">
       <c r="A237" t="s">
         <v>41</v>
       </c>
       <c r="B237">
-        <v>0.293197631835938</v>
+        <v>0.28694500732421901</v>
       </c>
       <c r="D237" t="s">
         <v>2</v>
@@ -4443,12 +4442,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7">
       <c r="A238" t="s">
         <v>40</v>
       </c>
       <c r="B238">
-        <v>1.4605886936187699E-3</v>
+        <v>1.82751250267029E-3</v>
       </c>
       <c r="D238" t="s">
         <v>2</v>
@@ -4460,12 +4459,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7">
       <c r="A239" t="s">
         <v>39</v>
       </c>
       <c r="B239">
-        <v>8.5901347920298589E-6</v>
+        <v>1.08986711129546E-5</v>
       </c>
       <c r="D239" t="s">
         <v>2</v>
@@ -4477,12 +4476,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7">
       <c r="A240" t="s">
         <v>38</v>
       </c>
       <c r="B240">
-        <v>9.1134868562221486E-6</v>
+        <v>1.3912814669311E-5</v>
       </c>
       <c r="D240" t="s">
         <v>2</v>
@@ -4494,12 +4493,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7">
       <c r="A241" t="s">
         <v>37</v>
       </c>
       <c r="B241">
-        <v>9.9380411207675902E-5</v>
+        <v>1.5171593427658101E-4</v>
       </c>
       <c r="D241" t="s">
         <v>2</v>
@@ -4511,12 +4510,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7">
       <c r="A242" t="s">
         <v>36</v>
       </c>
       <c r="B242">
-        <v>4.1896030306816102E-4</v>
+        <v>7.8006923198699991E-4</v>
       </c>
       <c r="D242" t="s">
         <v>2</v>
@@ -4528,7 +4527,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7">
       <c r="A243" t="s">
         <v>35</v>
       </c>
@@ -4545,12 +4544,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7">
       <c r="A244" t="s">
         <v>34</v>
       </c>
       <c r="B244">
-        <v>1.40751188155264E-6</v>
+        <v>1.37749582063407E-6</v>
       </c>
       <c r="D244" t="s">
         <v>2</v>
@@ -4562,7 +4561,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7">
       <c r="A245" t="s">
         <v>31</v>
       </c>
@@ -4582,7 +4581,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7">
       <c r="A246" t="s">
         <v>30</v>
       </c>
@@ -4602,7 +4601,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7">
       <c r="A247" t="s">
         <v>28</v>
       </c>
@@ -4622,7 +4621,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7">
       <c r="A248" t="s">
         <v>26</v>
       </c>
@@ -4642,7 +4641,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7">
       <c r="A249" t="s">
         <v>24</v>
       </c>
@@ -4662,7 +4661,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7">
       <c r="A250" t="s">
         <v>24</v>
       </c>
@@ -4682,7 +4681,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7">
       <c r="A251" t="s">
         <v>22</v>
       </c>
@@ -4702,7 +4701,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7">
       <c r="A252" t="s">
         <v>20</v>
       </c>
@@ -4722,12 +4721,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7">
       <c r="A253" t="s">
         <v>17</v>
       </c>
       <c r="B253">
-        <v>9.3521102905273393E-2</v>
+        <v>9.1526702880859401E-2</v>
       </c>
       <c r="C253" t="s">
         <v>16</v>
@@ -4742,7 +4741,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7">
       <c r="A254" t="s">
         <v>14</v>
       </c>
@@ -4762,7 +4761,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7">
       <c r="A255" t="s">
         <v>11</v>
       </c>
@@ -4782,7 +4781,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7">
       <c r="A256" t="s">
         <v>9</v>
       </c>
@@ -4802,7 +4801,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7">
       <c r="A257" t="s">
         <v>7</v>
       </c>
@@ -4822,7 +4821,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7">
       <c r="A258" t="s">
         <v>4</v>
       </c>
@@ -4842,7 +4841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" ht="15.75">
       <c r="A260" s="1" t="s">
         <v>54</v>
       </c>
@@ -4850,7 +4849,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7">
       <c r="A261" t="s">
         <v>53</v>
       </c>
@@ -4858,7 +4857,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7">
       <c r="A262" t="s">
         <v>47</v>
       </c>
@@ -4866,7 +4865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7">
       <c r="A263" t="s">
         <v>44</v>
       </c>
@@ -4874,7 +4873,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7">
       <c r="A264" t="s">
         <v>19</v>
       </c>
@@ -4882,12 +4881,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="265" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" ht="15.75">
       <c r="A265" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7">
       <c r="A266" t="s">
         <v>49</v>
       </c>
@@ -4910,12 +4909,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7">
       <c r="A267" t="s">
         <v>43</v>
       </c>
       <c r="B267">
-        <v>9.8979294300079304E-5</v>
+        <v>1.0012288391590101E-4</v>
       </c>
       <c r="D267" t="s">
         <v>2</v>
@@ -4927,12 +4926,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7">
       <c r="A268" t="s">
         <v>42</v>
       </c>
       <c r="B268">
-        <v>1.40282604843378E-5</v>
+        <v>2.1415797993540802E-5</v>
       </c>
       <c r="D268" t="s">
         <v>2</v>
@@ -4944,12 +4943,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7">
       <c r="A269" t="s">
         <v>41</v>
       </c>
       <c r="B269">
-        <v>0.17403352355957</v>
+        <v>0.16259948730468801</v>
       </c>
       <c r="D269" t="s">
         <v>2</v>
@@ -4961,12 +4960,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7">
       <c r="A270" t="s">
         <v>40</v>
       </c>
       <c r="B270">
-        <v>1.4605886936187699E-3</v>
+        <v>1.82751250267029E-3</v>
       </c>
       <c r="D270" t="s">
         <v>2</v>
@@ -4978,12 +4977,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7">
       <c r="A271" t="s">
         <v>39</v>
       </c>
       <c r="B271">
-        <v>8.5901347920298589E-6</v>
+        <v>1.08986711129546E-5</v>
       </c>
       <c r="D271" t="s">
         <v>2</v>
@@ -4995,12 +4994,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7">
       <c r="A272" t="s">
         <v>38</v>
       </c>
       <c r="B272">
-        <v>9.1134868562221486E-6</v>
+        <v>1.3912814669311E-5</v>
       </c>
       <c r="D272" t="s">
         <v>2</v>
@@ -5012,12 +5011,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7">
       <c r="A273" t="s">
         <v>37</v>
       </c>
       <c r="B273">
-        <v>9.9380411207675902E-5</v>
+        <v>1.5171593427658101E-4</v>
       </c>
       <c r="D273" t="s">
         <v>2</v>
@@ -5029,12 +5028,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7">
       <c r="A274" t="s">
         <v>36</v>
       </c>
       <c r="B274">
-        <v>4.1896030306816102E-4</v>
+        <v>7.8006923198699991E-4</v>
       </c>
       <c r="D274" t="s">
         <v>2</v>
@@ -5046,7 +5045,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7">
       <c r="A275" t="s">
         <v>35</v>
       </c>
@@ -5063,12 +5062,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7">
       <c r="A276" t="s">
         <v>34</v>
       </c>
       <c r="B276">
-        <v>8.3545781672000898E-7</v>
+        <v>7.8056810889393107E-7</v>
       </c>
       <c r="D276" t="s">
         <v>2</v>
@@ -5080,7 +5079,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7">
       <c r="A277" t="s">
         <v>31</v>
       </c>
@@ -5100,7 +5099,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7">
       <c r="A278" t="s">
         <v>30</v>
       </c>
@@ -5120,7 +5119,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7">
       <c r="A279" t="s">
         <v>28</v>
       </c>
@@ -5140,7 +5139,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7">
       <c r="A280" t="s">
         <v>26</v>
       </c>
@@ -5160,7 +5159,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7">
       <c r="A281" t="s">
         <v>24</v>
       </c>
@@ -5180,7 +5179,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7">
       <c r="A282" t="s">
         <v>24</v>
       </c>
@@ -5200,7 +5199,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7">
       <c r="A283" t="s">
         <v>22</v>
       </c>
@@ -5220,7 +5219,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7">
       <c r="A284" t="s">
         <v>20</v>
       </c>
@@ -5240,12 +5239,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7">
       <c r="A285" t="s">
         <v>17</v>
       </c>
       <c r="B285">
-        <v>5.5511386871337901E-2</v>
+        <v>5.1864276885986299E-2</v>
       </c>
       <c r="C285" t="s">
         <v>16</v>
@@ -5260,7 +5259,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7">
       <c r="A286" t="s">
         <v>14</v>
       </c>
@@ -5280,7 +5279,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7">
       <c r="A287" t="s">
         <v>11</v>
       </c>
@@ -5300,7 +5299,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7">
       <c r="A288" t="s">
         <v>9</v>
       </c>
@@ -5320,7 +5319,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7">
       <c r="A289" t="s">
         <v>7</v>
       </c>
@@ -5340,7 +5339,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7">
       <c r="A290" t="s">
         <v>4</v>
       </c>
@@ -5360,7 +5359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" ht="15.75">
       <c r="A292" s="1" t="s">
         <v>54</v>
       </c>
@@ -5368,7 +5367,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7">
       <c r="A293" t="s">
         <v>53</v>
       </c>
@@ -5376,7 +5375,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7">
       <c r="A294" t="s">
         <v>47</v>
       </c>
@@ -5384,7 +5383,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7">
       <c r="A295" t="s">
         <v>44</v>
       </c>
@@ -5392,7 +5391,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7">
       <c r="A296" t="s">
         <v>19</v>
       </c>
@@ -5400,12 +5399,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="297" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" ht="15.75">
       <c r="A297" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7">
       <c r="A298" t="s">
         <v>49</v>
       </c>
@@ -5428,12 +5427,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7">
       <c r="A299" t="s">
         <v>43</v>
       </c>
       <c r="B299">
-        <v>9.8979294300079304E-5</v>
+        <v>1.0012288391590101E-4</v>
       </c>
       <c r="D299" t="s">
         <v>2</v>
@@ -5445,12 +5444,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7">
       <c r="A300" t="s">
         <v>42</v>
       </c>
       <c r="B300">
-        <v>1.40282604843378E-5</v>
+        <v>2.1415797993540802E-5</v>
       </c>
       <c r="D300" t="s">
         <v>2</v>
@@ -5462,12 +5461,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7">
       <c r="A301" t="s">
         <v>41</v>
       </c>
       <c r="B301">
-        <v>0.22104916381835901</v>
+        <v>0.20696939086914101</v>
       </c>
       <c r="D301" t="s">
         <v>2</v>
@@ -5479,12 +5478,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7">
       <c r="A302" t="s">
         <v>40</v>
       </c>
       <c r="B302">
-        <v>1.4605886936187699E-3</v>
+        <v>1.82751250267029E-3</v>
       </c>
       <c r="D302" t="s">
         <v>2</v>
@@ -5496,12 +5495,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7">
       <c r="A303" t="s">
         <v>39</v>
       </c>
       <c r="B303">
-        <v>8.5901347920298589E-6</v>
+        <v>1.08986711129546E-5</v>
       </c>
       <c r="D303" t="s">
         <v>2</v>
@@ -5513,12 +5512,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7">
       <c r="A304" t="s">
         <v>38</v>
       </c>
       <c r="B304">
-        <v>9.1134868562221486E-6</v>
+        <v>1.3912814669311E-5</v>
       </c>
       <c r="D304" t="s">
         <v>2</v>
@@ -5530,12 +5529,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7">
       <c r="A305" t="s">
         <v>37</v>
       </c>
       <c r="B305">
-        <v>9.9380411207675902E-5</v>
+        <v>1.5171593427658101E-4</v>
       </c>
       <c r="D305" t="s">
         <v>2</v>
@@ -5547,12 +5546,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7">
       <c r="A306" t="s">
         <v>36</v>
       </c>
       <c r="B306">
-        <v>4.1896030306816102E-4</v>
+        <v>7.8006923198699991E-4</v>
       </c>
       <c r="D306" t="s">
         <v>2</v>
@@ -5564,7 +5563,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7">
       <c r="A307" t="s">
         <v>35</v>
       </c>
@@ -5581,12 +5580,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7">
       <c r="A308" t="s">
         <v>34</v>
       </c>
       <c r="B308">
-        <v>1.0611590696498801E-6</v>
+        <v>9.9356833379715701E-7</v>
       </c>
       <c r="D308" t="s">
         <v>2</v>
@@ -5598,7 +5597,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7">
       <c r="A309" t="s">
         <v>31</v>
       </c>
@@ -5618,7 +5617,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7">
       <c r="A310" t="s">
         <v>30</v>
       </c>
@@ -5638,7 +5637,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7">
       <c r="A311" t="s">
         <v>28</v>
       </c>
@@ -5658,7 +5657,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7">
       <c r="A312" t="s">
         <v>26</v>
       </c>
@@ -5678,7 +5677,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7">
       <c r="A313" t="s">
         <v>24</v>
       </c>
@@ -5698,7 +5697,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7">
       <c r="A314" t="s">
         <v>24</v>
       </c>
@@ -5718,7 +5717,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7">
       <c r="A315" t="s">
         <v>22</v>
       </c>
@@ -5738,7 +5737,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7">
       <c r="A316" t="s">
         <v>20</v>
       </c>
@@ -5758,12 +5757,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7">
       <c r="A317" t="s">
         <v>17</v>
       </c>
       <c r="B317">
-        <v>7.0507942199707005E-2</v>
+        <v>6.6016921997070294E-2</v>
       </c>
       <c r="C317" t="s">
         <v>16</v>
@@ -5778,7 +5777,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7">
       <c r="A318" t="s">
         <v>14</v>
       </c>
@@ -5798,7 +5797,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7">
       <c r="A319" t="s">
         <v>11</v>
       </c>
@@ -5818,7 +5817,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7">
       <c r="A320" t="s">
         <v>9</v>
       </c>
@@ -5838,7 +5837,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7">
       <c r="A321" t="s">
         <v>7</v>
       </c>
@@ -5858,7 +5857,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7">
       <c r="A322" t="s">
         <v>4</v>
       </c>
@@ -5878,7 +5877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" ht="15.75">
       <c r="A324" s="1" t="s">
         <v>54</v>
       </c>
@@ -5886,7 +5885,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7">
       <c r="A325" t="s">
         <v>53</v>
       </c>
@@ -5894,7 +5893,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7">
       <c r="A326" t="s">
         <v>47</v>
       </c>
@@ -5902,7 +5901,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7">
       <c r="A327" t="s">
         <v>44</v>
       </c>
@@ -5910,7 +5909,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7">
       <c r="A328" t="s">
         <v>19</v>
       </c>
@@ -5918,12 +5917,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="329" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" ht="15.75">
       <c r="A329" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7">
       <c r="A330" t="s">
         <v>49</v>
       </c>
@@ -5946,12 +5945,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7">
       <c r="A331" t="s">
         <v>43</v>
       </c>
       <c r="B331">
-        <v>9.8979294300079304E-5</v>
+        <v>1.0012288391590101E-4</v>
       </c>
       <c r="D331" t="s">
         <v>2</v>
@@ -5963,12 +5962,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7">
       <c r="A332" t="s">
         <v>42</v>
       </c>
       <c r="B332">
-        <v>1.40282604843378E-5</v>
+        <v>2.1415797993540802E-5</v>
       </c>
       <c r="D332" t="s">
         <v>2</v>
@@ -5980,12 +5979,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7">
       <c r="A333" t="s">
         <v>41</v>
       </c>
       <c r="B333">
-        <v>0.17403352355957</v>
+        <v>0.16259948730468801</v>
       </c>
       <c r="D333" t="s">
         <v>2</v>
@@ -5997,12 +5996,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7">
       <c r="A334" t="s">
         <v>40</v>
       </c>
       <c r="B334">
-        <v>1.4605886936187699E-3</v>
+        <v>1.82751250267029E-3</v>
       </c>
       <c r="D334" t="s">
         <v>2</v>
@@ -6014,12 +6013,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7">
       <c r="A335" t="s">
         <v>39</v>
       </c>
       <c r="B335">
-        <v>8.5901347920298589E-6</v>
+        <v>1.08986711129546E-5</v>
       </c>
       <c r="D335" t="s">
         <v>2</v>
@@ -6031,12 +6030,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7">
       <c r="A336" t="s">
         <v>38</v>
       </c>
       <c r="B336">
-        <v>9.1134868562221486E-6</v>
+        <v>1.3912814669311E-5</v>
       </c>
       <c r="D336" t="s">
         <v>2</v>
@@ -6048,12 +6047,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7">
       <c r="A337" t="s">
         <v>37</v>
       </c>
       <c r="B337">
-        <v>9.9380411207675902E-5</v>
+        <v>1.5171593427658101E-4</v>
       </c>
       <c r="D337" t="s">
         <v>2</v>
@@ -6065,12 +6064,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7">
       <c r="A338" t="s">
         <v>36</v>
       </c>
       <c r="B338">
-        <v>4.1896030306816102E-4</v>
+        <v>7.8006923198699991E-4</v>
       </c>
       <c r="D338" t="s">
         <v>2</v>
@@ -6082,7 +6081,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7">
       <c r="A339" t="s">
         <v>35</v>
       </c>
@@ -6099,12 +6098,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7">
       <c r="A340" t="s">
         <v>34</v>
       </c>
       <c r="B340">
-        <v>8.3545781672000898E-7</v>
+        <v>7.8056810889393107E-7</v>
       </c>
       <c r="D340" t="s">
         <v>2</v>
@@ -6116,7 +6115,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7">
       <c r="A341" t="s">
         <v>31</v>
       </c>
@@ -6136,7 +6135,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7">
       <c r="A342" t="s">
         <v>30</v>
       </c>
@@ -6156,7 +6155,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7">
       <c r="A343" t="s">
         <v>28</v>
       </c>
@@ -6176,7 +6175,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7">
       <c r="A344" t="s">
         <v>26</v>
       </c>
@@ -6196,7 +6195,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7">
       <c r="A345" t="s">
         <v>24</v>
       </c>
@@ -6216,7 +6215,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7">
       <c r="A346" t="s">
         <v>24</v>
       </c>
@@ -6236,7 +6235,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7">
       <c r="A347" t="s">
         <v>22</v>
       </c>
@@ -6256,7 +6255,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7">
       <c r="A348" t="s">
         <v>20</v>
       </c>
@@ -6276,12 +6275,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7">
       <c r="A349" t="s">
         <v>17</v>
       </c>
       <c r="B349">
-        <v>5.5511386871337901E-2</v>
+        <v>5.1864276885986299E-2</v>
       </c>
       <c r="C349" t="s">
         <v>16</v>
@@ -6296,7 +6295,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7">
       <c r="A350" t="s">
         <v>14</v>
       </c>
@@ -6316,7 +6315,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7">
       <c r="A351" t="s">
         <v>11</v>
       </c>
@@ -6336,7 +6335,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7">
       <c r="A352" t="s">
         <v>9</v>
       </c>
@@ -6356,7 +6355,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7">
       <c r="A353" t="s">
         <v>7</v>
       </c>
@@ -6376,7 +6375,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7">
       <c r="A354" t="s">
         <v>4</v>
       </c>
@@ -6396,7 +6395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" ht="15.75">
       <c r="A356" s="1" t="s">
         <v>54</v>
       </c>
@@ -6404,7 +6403,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7">
       <c r="A357" t="s">
         <v>53</v>
       </c>
@@ -6412,7 +6411,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7">
       <c r="A358" t="s">
         <v>47</v>
       </c>
@@ -6420,7 +6419,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7">
       <c r="A359" t="s">
         <v>44</v>
       </c>
@@ -6428,7 +6427,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7">
       <c r="A360" t="s">
         <v>19</v>
       </c>
@@ -6436,12 +6435,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="361" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" ht="15.75">
       <c r="A361" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7">
       <c r="A362" t="s">
         <v>49</v>
       </c>
@@ -6464,12 +6463,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7">
       <c r="A363" t="s">
         <v>43</v>
       </c>
       <c r="B363">
-        <v>9.8979294300079304E-5</v>
+        <v>1.0012288391590101E-4</v>
       </c>
       <c r="D363" t="s">
         <v>2</v>
@@ -6481,12 +6480,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7">
       <c r="A364" t="s">
         <v>42</v>
       </c>
       <c r="B364">
-        <v>1.40282604843378E-5</v>
+        <v>2.1415797993540802E-5</v>
       </c>
       <c r="D364" t="s">
         <v>2</v>
@@ -6498,12 +6497,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7">
       <c r="A365" t="s">
         <v>41</v>
       </c>
       <c r="B365">
-        <v>0.293197631835938</v>
+        <v>0.28694500732421901</v>
       </c>
       <c r="D365" t="s">
         <v>2</v>
@@ -6515,12 +6514,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7">
       <c r="A366" t="s">
         <v>40</v>
       </c>
       <c r="B366">
-        <v>1.4605886936187699E-3</v>
+        <v>1.82751250267029E-3</v>
       </c>
       <c r="D366" t="s">
         <v>2</v>
@@ -6532,12 +6531,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7">
       <c r="A367" t="s">
         <v>39</v>
       </c>
       <c r="B367">
-        <v>8.5901347920298589E-6</v>
+        <v>1.08986711129546E-5</v>
       </c>
       <c r="D367" t="s">
         <v>2</v>
@@ -6549,12 +6548,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7">
       <c r="A368" t="s">
         <v>38</v>
       </c>
       <c r="B368">
-        <v>9.1134868562221486E-6</v>
+        <v>1.3912814669311E-5</v>
       </c>
       <c r="D368" t="s">
         <v>2</v>
@@ -6566,12 +6565,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7">
       <c r="A369" t="s">
         <v>37</v>
       </c>
       <c r="B369">
-        <v>9.9380411207675902E-5</v>
+        <v>1.5171593427658101E-4</v>
       </c>
       <c r="D369" t="s">
         <v>2</v>
@@ -6583,12 +6582,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7">
       <c r="A370" t="s">
         <v>36</v>
       </c>
       <c r="B370">
-        <v>4.1896030306816102E-4</v>
+        <v>7.8006923198699991E-4</v>
       </c>
       <c r="D370" t="s">
         <v>2</v>
@@ -6600,7 +6599,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7">
       <c r="A371" t="s">
         <v>35</v>
       </c>
@@ -6617,12 +6616,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7">
       <c r="A372" t="s">
         <v>34</v>
       </c>
       <c r="B372">
-        <v>1.40751188155264E-6</v>
+        <v>1.37749582063407E-6</v>
       </c>
       <c r="D372" t="s">
         <v>2</v>
@@ -6634,7 +6633,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7">
       <c r="A373" t="s">
         <v>31</v>
       </c>
@@ -6654,7 +6653,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7">
       <c r="A374" t="s">
         <v>30</v>
       </c>
@@ -6674,7 +6673,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7">
       <c r="A375" t="s">
         <v>28</v>
       </c>
@@ -6694,7 +6693,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7">
       <c r="A376" t="s">
         <v>26</v>
       </c>
@@ -6714,7 +6713,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7">
       <c r="A377" t="s">
         <v>24</v>
       </c>
@@ -6734,7 +6733,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7">
       <c r="A378" t="s">
         <v>24</v>
       </c>
@@ -6754,7 +6753,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7">
       <c r="A379" t="s">
         <v>22</v>
       </c>
@@ -6774,7 +6773,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7">
       <c r="A380" t="s">
         <v>20</v>
       </c>
@@ -6794,12 +6793,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7">
       <c r="A381" t="s">
         <v>17</v>
       </c>
       <c r="B381">
-        <v>9.3521102905273393E-2</v>
+        <v>9.1526702880859401E-2</v>
       </c>
       <c r="C381" t="s">
         <v>16</v>
@@ -6814,7 +6813,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7">
       <c r="A382" t="s">
         <v>14</v>
       </c>
@@ -6834,7 +6833,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7">
       <c r="A383" t="s">
         <v>11</v>
       </c>
@@ -6854,7 +6853,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7">
       <c r="A384" t="s">
         <v>9</v>
       </c>
@@ -6874,7 +6873,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7">
       <c r="A385" t="s">
         <v>7</v>
       </c>
@@ -6894,7 +6893,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7">
       <c r="A386" t="s">
         <v>4</v>
       </c>
@@ -6914,7 +6913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7" ht="15.75">
       <c r="A388" s="1" t="s">
         <v>54</v>
       </c>
@@ -6922,7 +6921,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7">
       <c r="A389" t="s">
         <v>53</v>
       </c>
@@ -6930,7 +6929,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7">
       <c r="A390" t="s">
         <v>47</v>
       </c>
@@ -6938,7 +6937,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7">
       <c r="A391" t="s">
         <v>44</v>
       </c>
@@ -6946,7 +6945,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7">
       <c r="A392" t="s">
         <v>19</v>
       </c>
@@ -6954,12 +6953,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="393" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7" ht="15.75">
       <c r="A393" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7">
       <c r="A394" t="s">
         <v>49</v>
       </c>
@@ -6982,12 +6981,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:7">
       <c r="A395" t="s">
         <v>43</v>
       </c>
       <c r="B395">
-        <v>9.8979294300079304E-5</v>
+        <v>1.0012288391590101E-4</v>
       </c>
       <c r="D395" t="s">
         <v>2</v>
@@ -6999,12 +6998,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7">
       <c r="A396" t="s">
         <v>42</v>
       </c>
       <c r="B396">
-        <v>1.40282604843378E-5</v>
+        <v>2.1415797993540802E-5</v>
       </c>
       <c r="D396" t="s">
         <v>2</v>
@@ -7016,12 +7015,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:7">
       <c r="A397" t="s">
         <v>41</v>
       </c>
       <c r="B397">
-        <v>0.17403352355957</v>
+        <v>0.16259948730468801</v>
       </c>
       <c r="D397" t="s">
         <v>2</v>
@@ -7033,12 +7032,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7">
       <c r="A398" t="s">
         <v>40</v>
       </c>
       <c r="B398">
-        <v>1.4605886936187699E-3</v>
+        <v>1.82751250267029E-3</v>
       </c>
       <c r="D398" t="s">
         <v>2</v>
@@ -7050,12 +7049,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7">
       <c r="A399" t="s">
         <v>39</v>
       </c>
       <c r="B399">
-        <v>8.5901347920298589E-6</v>
+        <v>1.08986711129546E-5</v>
       </c>
       <c r="D399" t="s">
         <v>2</v>
@@ -7067,12 +7066,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:7">
       <c r="A400" t="s">
         <v>38</v>
       </c>
       <c r="B400">
-        <v>9.1134868562221486E-6</v>
+        <v>1.3912814669311E-5</v>
       </c>
       <c r="D400" t="s">
         <v>2</v>
@@ -7084,12 +7083,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7">
       <c r="A401" t="s">
         <v>37</v>
       </c>
       <c r="B401">
-        <v>9.9380411207675902E-5</v>
+        <v>1.5171593427658101E-4</v>
       </c>
       <c r="D401" t="s">
         <v>2</v>
@@ -7101,12 +7100,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7">
       <c r="A402" t="s">
         <v>36</v>
       </c>
       <c r="B402">
-        <v>4.1896030306816102E-4</v>
+        <v>7.8006923198699991E-4</v>
       </c>
       <c r="D402" t="s">
         <v>2</v>
@@ -7118,7 +7117,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7">
       <c r="A403" t="s">
         <v>35</v>
       </c>
@@ -7135,12 +7134,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:7">
       <c r="A404" t="s">
         <v>34</v>
       </c>
       <c r="B404">
-        <v>8.3545781672000898E-7</v>
+        <v>7.8056810889393107E-7</v>
       </c>
       <c r="D404" t="s">
         <v>2</v>
@@ -7152,7 +7151,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:7">
       <c r="A405" t="s">
         <v>31</v>
       </c>
@@ -7172,7 +7171,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7">
       <c r="A406" t="s">
         <v>30</v>
       </c>
@@ -7192,7 +7191,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:7">
       <c r="A407" t="s">
         <v>28</v>
       </c>
@@ -7212,7 +7211,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:7">
       <c r="A408" t="s">
         <v>26</v>
       </c>
@@ -7232,7 +7231,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:7">
       <c r="A409" t="s">
         <v>24</v>
       </c>
@@ -7252,7 +7251,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7">
       <c r="A410" t="s">
         <v>24</v>
       </c>
@@ -7272,7 +7271,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7">
       <c r="A411" t="s">
         <v>22</v>
       </c>
@@ -7292,7 +7291,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:7">
       <c r="A412" t="s">
         <v>20</v>
       </c>
@@ -7312,12 +7311,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7">
       <c r="A413" t="s">
         <v>17</v>
       </c>
       <c r="B413">
-        <v>5.5511386871337901E-2</v>
+        <v>5.1864276885986299E-2</v>
       </c>
       <c r="C413" t="s">
         <v>16</v>
@@ -7332,7 +7331,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:7">
       <c r="A414" t="s">
         <v>14</v>
       </c>
@@ -7352,7 +7351,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:7">
       <c r="A415" t="s">
         <v>11</v>
       </c>
@@ -7372,7 +7371,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:7">
       <c r="A416" t="s">
         <v>9</v>
       </c>
@@ -7392,7 +7391,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7">
       <c r="A417" t="s">
         <v>7</v>
       </c>
@@ -7412,7 +7411,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7">
       <c r="A418" t="s">
         <v>4</v>
       </c>
@@ -7432,7 +7431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7" ht="15.75">
       <c r="A420" s="1" t="s">
         <v>54</v>
       </c>
@@ -7440,7 +7439,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7">
       <c r="A421" t="s">
         <v>53</v>
       </c>
@@ -7448,7 +7447,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7">
       <c r="A422" t="s">
         <v>47</v>
       </c>
@@ -7456,7 +7455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7">
       <c r="A423" t="s">
         <v>44</v>
       </c>
@@ -7464,7 +7463,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7">
       <c r="A424" t="s">
         <v>19</v>
       </c>
@@ -7472,12 +7471,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="425" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7" ht="15.75">
       <c r="A425" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7">
       <c r="A426" t="s">
         <v>49</v>
       </c>
@@ -7500,12 +7499,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:7">
       <c r="A427" t="s">
         <v>43</v>
       </c>
       <c r="B427">
-        <v>9.8979294300079304E-5</v>
+        <v>1.0012288391590101E-4</v>
       </c>
       <c r="D427" t="s">
         <v>2</v>
@@ -7517,12 +7516,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:7">
       <c r="A428" t="s">
         <v>42</v>
       </c>
       <c r="B428">
-        <v>1.40282604843378E-5</v>
+        <v>2.1415797993540802E-5</v>
       </c>
       <c r="D428" t="s">
         <v>2</v>
@@ -7534,12 +7533,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7">
       <c r="A429" t="s">
         <v>41</v>
       </c>
       <c r="B429">
-        <v>0.22104916381835901</v>
+        <v>0.20696939086914101</v>
       </c>
       <c r="D429" t="s">
         <v>2</v>
@@ -7551,12 +7550,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7">
       <c r="A430" t="s">
         <v>40</v>
       </c>
       <c r="B430">
-        <v>1.4605886936187699E-3</v>
+        <v>1.82751250267029E-3</v>
       </c>
       <c r="D430" t="s">
         <v>2</v>
@@ -7568,12 +7567,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7">
       <c r="A431" t="s">
         <v>39</v>
       </c>
       <c r="B431">
-        <v>8.5901347920298589E-6</v>
+        <v>1.08986711129546E-5</v>
       </c>
       <c r="D431" t="s">
         <v>2</v>
@@ -7585,12 +7584,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7">
       <c r="A432" t="s">
         <v>38</v>
       </c>
       <c r="B432">
-        <v>9.1134868562221486E-6</v>
+        <v>1.3912814669311E-5</v>
       </c>
       <c r="D432" t="s">
         <v>2</v>
@@ -7602,12 +7601,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:7">
       <c r="A433" t="s">
         <v>37</v>
       </c>
       <c r="B433">
-        <v>9.9380411207675902E-5</v>
+        <v>1.5171593427658101E-4</v>
       </c>
       <c r="D433" t="s">
         <v>2</v>
@@ -7619,12 +7618,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:7">
       <c r="A434" t="s">
         <v>36</v>
       </c>
       <c r="B434">
-        <v>4.1896030306816102E-4</v>
+        <v>7.8006923198699991E-4</v>
       </c>
       <c r="D434" t="s">
         <v>2</v>
@@ -7636,7 +7635,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:7">
       <c r="A435" t="s">
         <v>35</v>
       </c>
@@ -7653,12 +7652,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:7">
       <c r="A436" t="s">
         <v>34</v>
       </c>
       <c r="B436">
-        <v>1.0611590696498801E-6</v>
+        <v>9.9356833379715701E-7</v>
       </c>
       <c r="D436" t="s">
         <v>2</v>
@@ -7670,7 +7669,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:7">
       <c r="A437" t="s">
         <v>31</v>
       </c>
@@ -7690,7 +7689,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:7">
       <c r="A438" t="s">
         <v>30</v>
       </c>
@@ -7710,7 +7709,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:7">
       <c r="A439" t="s">
         <v>28</v>
       </c>
@@ -7730,7 +7729,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:7">
       <c r="A440" t="s">
         <v>26</v>
       </c>
@@ -7750,7 +7749,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:7">
       <c r="A441" t="s">
         <v>24</v>
       </c>
@@ -7770,7 +7769,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:7">
       <c r="A442" t="s">
         <v>24</v>
       </c>
@@ -7790,7 +7789,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:7">
       <c r="A443" t="s">
         <v>22</v>
       </c>
@@ -7810,7 +7809,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:7">
       <c r="A444" t="s">
         <v>20</v>
       </c>
@@ -7830,12 +7829,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:7">
       <c r="A445" t="s">
         <v>17</v>
       </c>
       <c r="B445">
-        <v>7.0507942199707005E-2</v>
+        <v>6.6016921997070294E-2</v>
       </c>
       <c r="C445" t="s">
         <v>16</v>
@@ -7850,7 +7849,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:7">
       <c r="A446" t="s">
         <v>14</v>
       </c>
@@ -7870,7 +7869,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:7">
       <c r="A447" t="s">
         <v>11</v>
       </c>
@@ -7890,7 +7889,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:7">
       <c r="A448" t="s">
         <v>9</v>
       </c>
@@ -7910,7 +7909,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:8">
       <c r="A449" t="s">
         <v>7</v>
       </c>
@@ -7930,7 +7929,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:8">
       <c r="A450" t="s">
         <v>4</v>
       </c>
@@ -7950,78 +7949,78 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:8">
       <c r="B459" s="4"/>
       <c r="D459" s="5"/>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:8">
       <c r="A460" s="6"/>
       <c r="B460" s="4"/>
       <c r="H460" s="6"/>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:8">
       <c r="A461" s="6"/>
       <c r="B461" s="4"/>
       <c r="H461" s="6"/>
     </row>
-    <row r="487" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:1" ht="15.75">
       <c r="A487" s="1"/>
     </row>
-    <row r="492" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:1" ht="15.75">
       <c r="A492" s="1"/>
     </row>
-    <row r="519" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:1" ht="15.75">
       <c r="A519" s="1"/>
     </row>
-    <row r="524" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:1" ht="15.75">
       <c r="A524" s="1"/>
     </row>
-    <row r="551" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:1" ht="15.75">
       <c r="A551" s="1"/>
     </row>
-    <row r="556" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:1" ht="15.75">
       <c r="A556" s="1"/>
     </row>
-    <row r="583" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:1" ht="15.75">
       <c r="A583" s="1"/>
     </row>
-    <row r="588" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:1" ht="15.75">
       <c r="A588" s="1"/>
     </row>
-    <row r="615" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:1" ht="15.75">
       <c r="A615" s="1"/>
     </row>
-    <row r="620" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:1" ht="15.75">
       <c r="A620" s="1"/>
     </row>
-    <row r="653" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:1" ht="15.75">
       <c r="A653" s="1"/>
     </row>
-    <row r="658" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:1" ht="15.75">
       <c r="A658" s="1"/>
     </row>
-    <row r="691" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:1" ht="15.75">
       <c r="A691" s="1"/>
     </row>
-    <row r="696" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:1" ht="15.75">
       <c r="A696" s="1"/>
     </row>
-    <row r="729" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:1" ht="15.75">
       <c r="A729" s="1"/>
     </row>
-    <row r="734" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:1" ht="15.75">
       <c r="A734" s="1"/>
     </row>
-    <row r="767" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:1" ht="15.75">
       <c r="A767" s="1"/>
     </row>
-    <row r="772" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:1" ht="15.75">
       <c r="A772" s="1"/>
     </row>
-    <row r="805" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:1" ht="15.75">
       <c r="A805" s="1"/>
     </row>
-    <row r="810" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:1" ht="15.75">
       <c r="A810" s="1"/>
     </row>
   </sheetData>
